--- a/test_resources/st_tgt_1.xlsx
+++ b/test_resources/st_tgt_1.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="st_tgt_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>

--- a/test_resources/st_tgt_1.xlsx
+++ b/test_resources/st_tgt_1.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
